--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14380500-555A-4FEA-A0AF-CFE7783CE806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF6ABC-64D6-4EE2-AA0A-18D1136F8783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1003">
   <si>
     <t>Kanji</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3103,6 +3103,22 @@
   </si>
   <si>
     <t>ほうそう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>選手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんしゅ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいひょう</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3512,10 +3528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:F465"/>
+  <dimension ref="A1:F467"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="B465" sqref="B465"/>
+      <selection activeCell="A468" sqref="A468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8684,6 +8700,22 @@
         <v>998</v>
       </c>
     </row>
+    <row r="466" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A466" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A467" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>1002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF6ABC-64D6-4EE2-AA0A-18D1136F8783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561FEC4B-69C4-4CFA-A11C-AB24033E2D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1000">
   <si>
     <t>Kanji</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2201,15 +2201,6 @@
   <si>
     <t>科学／化学</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>湯</t>
-  </si>
-  <si>
-    <t>ゆ</t>
-  </si>
-  <si>
-    <t>開水/溫泉/洗澡水</t>
   </si>
   <si>
     <t>糸</t>
@@ -3528,10 +3519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:F467"/>
+  <dimension ref="A1:F466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="A468" sqref="A468"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6284,10 +6275,10 @@
     </row>
     <row r="277" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A277" s="3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
@@ -7318,7 +7309,7 @@
         <v>722</v>
       </c>
       <c r="C353" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D353" t="s">
         <v>723</v>
@@ -7332,7 +7323,7 @@
         <v>725</v>
       </c>
       <c r="C354" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="D354" t="s">
         <v>726</v>
@@ -7346,7 +7337,7 @@
         <v>728</v>
       </c>
       <c r="C355" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="D355" t="s">
         <v>729</v>
@@ -7405,49 +7396,49 @@
         <v>389</v>
       </c>
       <c r="D359" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>741</v>
+      </c>
+      <c r="B360" t="s">
         <v>742</v>
       </c>
-      <c r="B360" t="s">
-        <v>743</v>
-      </c>
       <c r="C360" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="D360" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>743</v>
+      </c>
+      <c r="B361" t="s">
         <v>744</v>
       </c>
-      <c r="B361" t="s">
-        <v>745</v>
-      </c>
       <c r="C361" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="D361" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>745</v>
+      </c>
+      <c r="B362" t="s">
         <v>746</v>
       </c>
-      <c r="B362" t="s">
+      <c r="C362" t="s">
+        <v>389</v>
+      </c>
+      <c r="D362" t="s">
         <v>747</v>
-      </c>
-      <c r="C362" t="s">
-        <v>393</v>
-      </c>
-      <c r="D362" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7539,122 +7530,122 @@
         <v>766</v>
       </c>
       <c r="B369" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C369" t="s">
         <v>389</v>
       </c>
       <c r="D369" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B370" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C370" t="s">
         <v>389</v>
       </c>
       <c r="D370" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>770</v>
+      </c>
+      <c r="B371" t="s">
+        <v>770</v>
+      </c>
+      <c r="C371" t="s">
+        <v>407</v>
+      </c>
+      <c r="D371" t="s">
         <v>771</v>
-      </c>
-      <c r="B371" t="s">
-        <v>771</v>
-      </c>
-      <c r="C371" t="s">
-        <v>389</v>
-      </c>
-      <c r="D371" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B372" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C372" t="s">
         <v>407</v>
       </c>
       <c r="D372" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>774</v>
+      </c>
+      <c r="B373" t="s">
+        <v>774</v>
+      </c>
+      <c r="C373" t="s">
+        <v>389</v>
+      </c>
+      <c r="D373" t="s">
         <v>775</v>
-      </c>
-      <c r="B373" t="s">
-        <v>775</v>
-      </c>
-      <c r="C373" t="s">
-        <v>407</v>
-      </c>
-      <c r="D373" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>776</v>
+      </c>
+      <c r="B374" t="s">
+        <v>776</v>
+      </c>
+      <c r="C374" t="s">
+        <v>393</v>
+      </c>
+      <c r="D374" t="s">
         <v>777</v>
-      </c>
-      <c r="B374" t="s">
-        <v>777</v>
-      </c>
-      <c r="C374" t="s">
-        <v>389</v>
-      </c>
-      <c r="D374" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>778</v>
+      </c>
+      <c r="B375" t="s">
+        <v>778</v>
+      </c>
+      <c r="C375" t="s">
+        <v>389</v>
+      </c>
+      <c r="D375" t="s">
         <v>779</v>
-      </c>
-      <c r="B375" t="s">
-        <v>779</v>
-      </c>
-      <c r="C375" t="s">
-        <v>393</v>
-      </c>
-      <c r="D375" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>780</v>
+      </c>
+      <c r="B376" t="s">
+        <v>780</v>
+      </c>
+      <c r="C376" t="s">
+        <v>442</v>
+      </c>
+      <c r="D376" t="s">
         <v>781</v>
-      </c>
-      <c r="B376" t="s">
-        <v>781</v>
-      </c>
-      <c r="C376" t="s">
-        <v>389</v>
-      </c>
-      <c r="D376" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B377" t="s">
         <v>783</v>
       </c>
       <c r="C377" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="D377" t="s">
         <v>784</v>
@@ -7682,7 +7673,7 @@
         <v>789</v>
       </c>
       <c r="C379" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D379" t="s">
         <v>790</v>
@@ -7696,7 +7687,7 @@
         <v>792</v>
       </c>
       <c r="C380" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D380" t="s">
         <v>793</v>
@@ -7724,24 +7715,24 @@
         <v>798</v>
       </c>
       <c r="C382" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D382" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>799</v>
+      </c>
+      <c r="B383" t="s">
         <v>800</v>
       </c>
-      <c r="B383" t="s">
+      <c r="C383" t="s">
+        <v>389</v>
+      </c>
+      <c r="D383" t="s">
         <v>801</v>
-      </c>
-      <c r="C383" t="s">
-        <v>407</v>
-      </c>
-      <c r="D383" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7752,7 +7743,7 @@
         <v>803</v>
       </c>
       <c r="C384" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D384" t="s">
         <v>804</v>
@@ -7766,7 +7757,7 @@
         <v>806</v>
       </c>
       <c r="C385" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D385" t="s">
         <v>807</v>
@@ -7780,7 +7771,7 @@
         <v>809</v>
       </c>
       <c r="C386" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="D386" t="s">
         <v>810</v>
@@ -7794,7 +7785,7 @@
         <v>812</v>
       </c>
       <c r="C387" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D387" t="s">
         <v>813</v>
@@ -7836,24 +7827,24 @@
         <v>821</v>
       </c>
       <c r="C390" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D390" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>822</v>
+      </c>
+      <c r="B391" t="s">
         <v>823</v>
       </c>
-      <c r="B391" t="s">
+      <c r="C391" t="s">
+        <v>427</v>
+      </c>
+      <c r="D391" t="s">
         <v>824</v>
-      </c>
-      <c r="C391" t="s">
-        <v>389</v>
-      </c>
-      <c r="D391" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7864,7 +7855,7 @@
         <v>826</v>
       </c>
       <c r="C392" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="D392" t="s">
         <v>827</v>
@@ -7875,100 +7866,100 @@
         <v>828</v>
       </c>
       <c r="B393" t="s">
+        <v>828</v>
+      </c>
+      <c r="C393" t="s">
+        <v>407</v>
+      </c>
+      <c r="D393" t="s">
         <v>829</v>
       </c>
-      <c r="C393" t="s">
-        <v>442</v>
-      </c>
-      <c r="D393" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+    </row>
+    <row r="394" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A394" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="B394" t="s">
-        <v>831</v>
-      </c>
-      <c r="C394" t="s">
-        <v>407</v>
-      </c>
-      <c r="D394" t="s">
+      <c r="B394" s="3" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A395" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B395" s="3" t="s">
         <v>834</v>
-      </c>
-      <c r="B395" s="3" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A396" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B396" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="B396" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A397" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B397" s="3" t="s">
         <v>838</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A398" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B398" s="3" t="s">
         <v>840</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A399" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B399" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="B399" s="3" t="s">
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A400" s="3" t="s">
+      <c r="B400" t="s">
+        <v>843</v>
+      </c>
+      <c r="C400" t="s">
+        <v>407</v>
+      </c>
+      <c r="D400" t="s">
         <v>844</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B401" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C401" t="s">
         <v>407</v>
       </c>
       <c r="D401" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B402" t="s">
         <v>848</v>
       </c>
       <c r="C402" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D402" t="s">
         <v>849</v>
@@ -7982,7 +7973,7 @@
         <v>851</v>
       </c>
       <c r="C403" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D403" t="s">
         <v>852</v>
@@ -7999,21 +7990,21 @@
         <v>407</v>
       </c>
       <c r="D404" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>855</v>
+      </c>
+      <c r="B405" t="s">
         <v>856</v>
-      </c>
-      <c r="B405" t="s">
-        <v>857</v>
       </c>
       <c r="C405" t="s">
         <v>407</v>
       </c>
       <c r="D405" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8038,7 +8029,7 @@
         <v>862</v>
       </c>
       <c r="C407" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D407" t="s">
         <v>863</v>
@@ -8083,35 +8074,35 @@
         <v>389</v>
       </c>
       <c r="D410" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>872</v>
+      </c>
+      <c r="B411" t="s">
         <v>873</v>
-      </c>
-      <c r="B411" t="s">
-        <v>874</v>
       </c>
       <c r="C411" t="s">
         <v>389</v>
       </c>
       <c r="D411" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>874</v>
+      </c>
+      <c r="B412" t="s">
         <v>875</v>
-      </c>
-      <c r="B412" t="s">
-        <v>876</v>
       </c>
       <c r="C412" t="s">
         <v>389</v>
       </c>
       <c r="D412" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8136,21 +8127,21 @@
         <v>881</v>
       </c>
       <c r="C414" t="s">
-        <v>389</v>
+        <v>882</v>
       </c>
       <c r="D414" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B415" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C415" t="s">
-        <v>885</v>
+        <v>427</v>
       </c>
       <c r="D415" t="s">
         <v>886</v>
@@ -8178,7 +8169,7 @@
         <v>891</v>
       </c>
       <c r="C417" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D417" t="s">
         <v>892</v>
@@ -8192,7 +8183,7 @@
         <v>894</v>
       </c>
       <c r="C418" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D418" t="s">
         <v>895</v>
@@ -8206,24 +8197,24 @@
         <v>897</v>
       </c>
       <c r="C419" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D419" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>898</v>
+      </c>
+      <c r="B420" t="s">
         <v>899</v>
       </c>
-      <c r="B420" t="s">
+      <c r="C420" t="s">
+        <v>393</v>
+      </c>
+      <c r="D420" t="s">
         <v>900</v>
-      </c>
-      <c r="C420" t="s">
-        <v>407</v>
-      </c>
-      <c r="D420" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8234,7 +8225,7 @@
         <v>902</v>
       </c>
       <c r="C421" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="D421" t="s">
         <v>903</v>
@@ -8245,108 +8236,108 @@
         <v>904</v>
       </c>
       <c r="B422" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C422" t="s">
         <v>427</v>
       </c>
       <c r="D422" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B423" t="s">
         <v>907</v>
       </c>
-      <c r="C423" t="s">
-        <v>427</v>
-      </c>
-      <c r="D423" t="s">
-        <v>908</v>
-      </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>908</v>
+      </c>
+      <c r="B424" t="s">
         <v>909</v>
-      </c>
-      <c r="B424" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>910</v>
+      </c>
+      <c r="B425" t="s">
         <v>911</v>
-      </c>
-      <c r="B425" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>912</v>
+      </c>
+      <c r="B426" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A427" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="B426" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>915</v>
-      </c>
-      <c r="B427" t="s">
-        <v>915</v>
+      <c r="B427" s="3" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A428" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A429" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B429" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="B429" s="3" t="s">
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>962</v>
+      </c>
+      <c r="B430" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A430" s="3" t="s">
+      <c r="C430" t="s">
+        <v>882</v>
+      </c>
+      <c r="D430" t="s">
         <v>919</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>965</v>
+        <v>920</v>
       </c>
       <c r="B431" t="s">
         <v>921</v>
       </c>
       <c r="C431" t="s">
-        <v>885</v>
+        <v>427</v>
       </c>
       <c r="D431" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>922</v>
+      </c>
+      <c r="B432" t="s">
         <v>923</v>
       </c>
-      <c r="B432" t="s">
-        <v>924</v>
-      </c>
       <c r="C432" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D432" t="s">
         <v>922</v>
@@ -8354,27 +8345,27 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>924</v>
+      </c>
+      <c r="B433" t="s">
         <v>925</v>
       </c>
-      <c r="B433" t="s">
+      <c r="C433" t="s">
         <v>926</v>
       </c>
-      <c r="C433" t="s">
-        <v>407</v>
-      </c>
       <c r="D433" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B434" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C434" t="s">
-        <v>929</v>
+        <v>407</v>
       </c>
       <c r="D434" t="s">
         <v>930</v>
@@ -8416,24 +8407,24 @@
         <v>938</v>
       </c>
       <c r="C437" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D437" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>939</v>
+      </c>
+      <c r="B438" t="s">
         <v>940</v>
-      </c>
-      <c r="B438" t="s">
-        <v>941</v>
       </c>
       <c r="C438" t="s">
         <v>389</v>
       </c>
       <c r="D438" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8444,24 +8435,24 @@
         <v>943</v>
       </c>
       <c r="C439" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D439" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>944</v>
+      </c>
+      <c r="B440" t="s">
         <v>945</v>
       </c>
-      <c r="B440" t="s">
+      <c r="C440" t="s">
         <v>946</v>
       </c>
-      <c r="C440" t="s">
-        <v>407</v>
-      </c>
       <c r="D440" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8472,7 +8463,7 @@
         <v>948</v>
       </c>
       <c r="C441" t="s">
-        <v>949</v>
+        <v>389</v>
       </c>
       <c r="D441" t="s">
         <v>947</v>
@@ -8480,16 +8471,16 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>949</v>
+      </c>
+      <c r="B442" t="s">
         <v>950</v>
       </c>
-      <c r="B442" t="s">
+      <c r="C442" t="s">
+        <v>427</v>
+      </c>
+      <c r="D442" t="s">
         <v>951</v>
-      </c>
-      <c r="C442" t="s">
-        <v>389</v>
-      </c>
-      <c r="D442" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8500,7 +8491,7 @@
         <v>953</v>
       </c>
       <c r="C443" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="D443" t="s">
         <v>954</v>
@@ -8528,192 +8519,178 @@
         <v>959</v>
       </c>
       <c r="C445" t="s">
-        <v>389</v>
+        <v>960</v>
       </c>
       <c r="D445" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B446" t="s">
-        <v>962</v>
-      </c>
-      <c r="C446" t="s">
-        <v>963</v>
-      </c>
-      <c r="D446" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+    <row r="447" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A447" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="B447" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="B447" t="s">
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A448" s="3" t="s">
+      <c r="B448" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A449" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="B448" s="3" t="s">
+      <c r="B449" s="3" t="s">
         <v>969</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>970</v>
-      </c>
-      <c r="B449" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A450" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B450" s="3" t="s">
         <v>971</v>
-      </c>
-      <c r="B450" s="3" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A451" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A452" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A453" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A454" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A455" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A456" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A457" s="3" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A458" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="B458" s="3" t="s">
         <v>985</v>
-      </c>
-      <c r="B458" s="3" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A459" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B459" s="3" t="s">
         <v>987</v>
-      </c>
-      <c r="B459" s="3" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A460" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B460" s="3" t="s">
         <v>989</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A461" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A462" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A463" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A464" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B464" s="3" t="s">
         <v>995</v>
-      </c>
-      <c r="B464" s="3" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A465" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B465" s="3" t="s">
         <v>997</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A466" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B466" s="3" t="s">
         <v>999</v>
-      </c>
-      <c r="B466" s="3" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A467" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14380500-555A-4FEA-A0AF-CFE7783CE806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4689FFA2-6E04-461E-82E3-B0B3C8D3938A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1084">
   <si>
     <t>Kanji</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2203,15 +2203,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>湯</t>
-  </si>
-  <si>
-    <t>ゆ</t>
-  </si>
-  <si>
-    <t>開水/溫泉/洗澡水</t>
-  </si>
-  <si>
     <t>糸</t>
   </si>
   <si>
@@ -3103,6 +3094,283 @@
   </si>
   <si>
     <t>ほうそう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>選手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんしゅ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいひょう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交換</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうかん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸っぱい</t>
+  </si>
+  <si>
+    <t>すっぱい</t>
+  </si>
+  <si>
+    <t>酸的</t>
+  </si>
+  <si>
+    <t>甘い</t>
+  </si>
+  <si>
+    <t>あまい</t>
+  </si>
+  <si>
+    <t>甜的</t>
+  </si>
+  <si>
+    <t>苦い</t>
+  </si>
+  <si>
+    <t>にがい</t>
+  </si>
+  <si>
+    <t>苦的</t>
+  </si>
+  <si>
+    <t>辛い</t>
+  </si>
+  <si>
+    <t>からい</t>
+  </si>
+  <si>
+    <t>辣的</t>
+  </si>
+  <si>
+    <t>深い</t>
+  </si>
+  <si>
+    <t>ふかい</t>
+  </si>
+  <si>
+    <t>深的</t>
+  </si>
+  <si>
+    <t>浅い</t>
+  </si>
+  <si>
+    <t>あさい</t>
+  </si>
+  <si>
+    <t>淺的</t>
+  </si>
+  <si>
+    <t>堅い</t>
+  </si>
+  <si>
+    <t>かたい</t>
+  </si>
+  <si>
+    <t>堅固的/堅定的</t>
+  </si>
+  <si>
+    <t>固い</t>
+  </si>
+  <si>
+    <t>堅固的/頑固的</t>
+  </si>
+  <si>
+    <t>硬い</t>
+  </si>
+  <si>
+    <t>硬的</t>
+  </si>
+  <si>
+    <t>眠い</t>
+  </si>
+  <si>
+    <t>ねむい</t>
+  </si>
+  <si>
+    <t>想睡/愛睏</t>
+  </si>
+  <si>
+    <t>酷い</t>
+  </si>
+  <si>
+    <t>ひどい</t>
+  </si>
+  <si>
+    <t>過分的/殘酷的</t>
+  </si>
+  <si>
+    <t>怖い</t>
+  </si>
+  <si>
+    <t>こわい</t>
+  </si>
+  <si>
+    <t>恐怖的/可怕的</t>
+  </si>
+  <si>
+    <t>正しい</t>
+  </si>
+  <si>
+    <t>ただしい</t>
+  </si>
+  <si>
+    <t>正確的</t>
+  </si>
+  <si>
+    <t>悲しい</t>
+  </si>
+  <si>
+    <t>かなしい</t>
+  </si>
+  <si>
+    <t>悲傷的/難過的</t>
+  </si>
+  <si>
+    <t>嬉しい</t>
+  </si>
+  <si>
+    <t>うれしい</t>
+  </si>
+  <si>
+    <t>高興的/開心的</t>
+  </si>
+  <si>
+    <t>美しい</t>
+  </si>
+  <si>
+    <t>うつくしい</t>
+  </si>
+  <si>
+    <t>美的/漂亮的</t>
+  </si>
+  <si>
+    <t>珍しい</t>
+  </si>
+  <si>
+    <t>めずらしい</t>
+  </si>
+  <si>
+    <t>罕見的/稀奇的</t>
+  </si>
+  <si>
+    <t>寂しい</t>
+  </si>
+  <si>
+    <t>さびしい</t>
+  </si>
+  <si>
+    <t>寂寞的/孤單的</t>
+  </si>
+  <si>
+    <t>細かい</t>
+  </si>
+  <si>
+    <t>こまかい</t>
+  </si>
+  <si>
+    <t>零碎的/詳細的</t>
+  </si>
+  <si>
+    <t>柔らかい</t>
+  </si>
+  <si>
+    <t>やわらかい</t>
+  </si>
+  <si>
+    <t>柔軟的</t>
+  </si>
+  <si>
+    <t>恥ずかしい</t>
+  </si>
+  <si>
+    <t>はずかしい</t>
+  </si>
+  <si>
+    <t>害羞的/可恥的</t>
+  </si>
+  <si>
+    <t>素晴らしい</t>
+  </si>
+  <si>
+    <t>すばらしい</t>
+  </si>
+  <si>
+    <t>了不起的/優秀的</t>
+  </si>
+  <si>
+    <t>うまい</t>
+  </si>
+  <si>
+    <t>好吃的/高明的</t>
+  </si>
+  <si>
+    <t>すごい</t>
+  </si>
+  <si>
+    <t>厲害的/了不起的</t>
+  </si>
+  <si>
+    <t>よろしい</t>
+  </si>
+  <si>
+    <t>好的</t>
+  </si>
+  <si>
+    <t>おかしい</t>
+  </si>
+  <si>
+    <t>奇怪的/可笑的</t>
+  </si>
+  <si>
+    <t>生活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいかつ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>スピーカー</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市役所</t>
+  </si>
+  <si>
+    <t>しやくしょ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>デザイン</t>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>データ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3512,10 +3780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:F465"/>
+  <dimension ref="A1:F498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="B465" sqref="B465"/>
+    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="B498" sqref="B498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6268,10 +6536,10 @@
     </row>
     <row r="277" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A277" s="3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
@@ -7302,7 +7570,7 @@
         <v>722</v>
       </c>
       <c r="C353" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D353" t="s">
         <v>723</v>
@@ -7316,7 +7584,7 @@
         <v>725</v>
       </c>
       <c r="C354" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="D354" t="s">
         <v>726</v>
@@ -7330,7 +7598,7 @@
         <v>728</v>
       </c>
       <c r="C355" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="D355" t="s">
         <v>729</v>
@@ -7389,49 +7657,49 @@
         <v>389</v>
       </c>
       <c r="D359" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>741</v>
+      </c>
+      <c r="B360" t="s">
         <v>742</v>
       </c>
-      <c r="B360" t="s">
-        <v>743</v>
-      </c>
       <c r="C360" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="D360" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>743</v>
+      </c>
+      <c r="B361" t="s">
         <v>744</v>
       </c>
-      <c r="B361" t="s">
-        <v>745</v>
-      </c>
       <c r="C361" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="D361" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>745</v>
+      </c>
+      <c r="B362" t="s">
         <v>746</v>
       </c>
-      <c r="B362" t="s">
+      <c r="C362" t="s">
+        <v>389</v>
+      </c>
+      <c r="D362" t="s">
         <v>747</v>
-      </c>
-      <c r="C362" t="s">
-        <v>393</v>
-      </c>
-      <c r="D362" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7523,122 +7791,122 @@
         <v>766</v>
       </c>
       <c r="B369" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C369" t="s">
         <v>389</v>
       </c>
       <c r="D369" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B370" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C370" t="s">
         <v>389</v>
       </c>
       <c r="D370" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>770</v>
+      </c>
+      <c r="B371" t="s">
+        <v>770</v>
+      </c>
+      <c r="C371" t="s">
+        <v>407</v>
+      </c>
+      <c r="D371" t="s">
         <v>771</v>
-      </c>
-      <c r="B371" t="s">
-        <v>771</v>
-      </c>
-      <c r="C371" t="s">
-        <v>389</v>
-      </c>
-      <c r="D371" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B372" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C372" t="s">
         <v>407</v>
       </c>
       <c r="D372" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>774</v>
+      </c>
+      <c r="B373" t="s">
+        <v>774</v>
+      </c>
+      <c r="C373" t="s">
+        <v>389</v>
+      </c>
+      <c r="D373" t="s">
         <v>775</v>
-      </c>
-      <c r="B373" t="s">
-        <v>775</v>
-      </c>
-      <c r="C373" t="s">
-        <v>407</v>
-      </c>
-      <c r="D373" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>776</v>
+      </c>
+      <c r="B374" t="s">
+        <v>776</v>
+      </c>
+      <c r="C374" t="s">
+        <v>393</v>
+      </c>
+      <c r="D374" t="s">
         <v>777</v>
-      </c>
-      <c r="B374" t="s">
-        <v>777</v>
-      </c>
-      <c r="C374" t="s">
-        <v>389</v>
-      </c>
-      <c r="D374" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>778</v>
+      </c>
+      <c r="B375" t="s">
+        <v>778</v>
+      </c>
+      <c r="C375" t="s">
+        <v>389</v>
+      </c>
+      <c r="D375" t="s">
         <v>779</v>
-      </c>
-      <c r="B375" t="s">
-        <v>779</v>
-      </c>
-      <c r="C375" t="s">
-        <v>393</v>
-      </c>
-      <c r="D375" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>780</v>
+      </c>
+      <c r="B376" t="s">
+        <v>780</v>
+      </c>
+      <c r="C376" t="s">
+        <v>442</v>
+      </c>
+      <c r="D376" t="s">
         <v>781</v>
-      </c>
-      <c r="B376" t="s">
-        <v>781</v>
-      </c>
-      <c r="C376" t="s">
-        <v>389</v>
-      </c>
-      <c r="D376" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B377" t="s">
         <v>783</v>
       </c>
       <c r="C377" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="D377" t="s">
         <v>784</v>
@@ -7666,7 +7934,7 @@
         <v>789</v>
       </c>
       <c r="C379" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D379" t="s">
         <v>790</v>
@@ -7680,7 +7948,7 @@
         <v>792</v>
       </c>
       <c r="C380" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D380" t="s">
         <v>793</v>
@@ -7708,24 +7976,24 @@
         <v>798</v>
       </c>
       <c r="C382" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D382" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>799</v>
+      </c>
+      <c r="B383" t="s">
         <v>800</v>
       </c>
-      <c r="B383" t="s">
+      <c r="C383" t="s">
+        <v>389</v>
+      </c>
+      <c r="D383" t="s">
         <v>801</v>
-      </c>
-      <c r="C383" t="s">
-        <v>407</v>
-      </c>
-      <c r="D383" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7736,7 +8004,7 @@
         <v>803</v>
       </c>
       <c r="C384" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D384" t="s">
         <v>804</v>
@@ -7750,7 +8018,7 @@
         <v>806</v>
       </c>
       <c r="C385" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D385" t="s">
         <v>807</v>
@@ -7764,7 +8032,7 @@
         <v>809</v>
       </c>
       <c r="C386" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="D386" t="s">
         <v>810</v>
@@ -7778,7 +8046,7 @@
         <v>812</v>
       </c>
       <c r="C387" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D387" t="s">
         <v>813</v>
@@ -7820,24 +8088,24 @@
         <v>821</v>
       </c>
       <c r="C390" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D390" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>822</v>
+      </c>
+      <c r="B391" t="s">
         <v>823</v>
       </c>
-      <c r="B391" t="s">
+      <c r="C391" t="s">
+        <v>427</v>
+      </c>
+      <c r="D391" t="s">
         <v>824</v>
-      </c>
-      <c r="C391" t="s">
-        <v>389</v>
-      </c>
-      <c r="D391" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7848,7 +8116,7 @@
         <v>826</v>
       </c>
       <c r="C392" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="D392" t="s">
         <v>827</v>
@@ -7859,100 +8127,100 @@
         <v>828</v>
       </c>
       <c r="B393" t="s">
+        <v>828</v>
+      </c>
+      <c r="C393" t="s">
+        <v>407</v>
+      </c>
+      <c r="D393" t="s">
         <v>829</v>
       </c>
-      <c r="C393" t="s">
-        <v>442</v>
-      </c>
-      <c r="D393" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+    </row>
+    <row r="394" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A394" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="B394" t="s">
-        <v>831</v>
-      </c>
-      <c r="C394" t="s">
-        <v>407</v>
-      </c>
-      <c r="D394" t="s">
+      <c r="B394" s="3" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A395" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B395" s="3" t="s">
         <v>834</v>
-      </c>
-      <c r="B395" s="3" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A396" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B396" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="B396" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A397" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B397" s="3" t="s">
         <v>838</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A398" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B398" s="3" t="s">
         <v>840</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A399" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B399" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="B399" s="3" t="s">
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A400" s="3" t="s">
+      <c r="B400" t="s">
+        <v>843</v>
+      </c>
+      <c r="C400" t="s">
+        <v>407</v>
+      </c>
+      <c r="D400" t="s">
         <v>844</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B401" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C401" t="s">
         <v>407</v>
       </c>
       <c r="D401" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B402" t="s">
         <v>848</v>
       </c>
       <c r="C402" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D402" t="s">
         <v>849</v>
@@ -7966,7 +8234,7 @@
         <v>851</v>
       </c>
       <c r="C403" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D403" t="s">
         <v>852</v>
@@ -7983,21 +8251,21 @@
         <v>407</v>
       </c>
       <c r="D404" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>855</v>
+      </c>
+      <c r="B405" t="s">
         <v>856</v>
-      </c>
-      <c r="B405" t="s">
-        <v>857</v>
       </c>
       <c r="C405" t="s">
         <v>407</v>
       </c>
       <c r="D405" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8022,7 +8290,7 @@
         <v>862</v>
       </c>
       <c r="C407" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D407" t="s">
         <v>863</v>
@@ -8067,35 +8335,35 @@
         <v>389</v>
       </c>
       <c r="D410" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>872</v>
+      </c>
+      <c r="B411" t="s">
         <v>873</v>
-      </c>
-      <c r="B411" t="s">
-        <v>874</v>
       </c>
       <c r="C411" t="s">
         <v>389</v>
       </c>
       <c r="D411" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>874</v>
+      </c>
+      <c r="B412" t="s">
         <v>875</v>
-      </c>
-      <c r="B412" t="s">
-        <v>876</v>
       </c>
       <c r="C412" t="s">
         <v>389</v>
       </c>
       <c r="D412" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8120,21 +8388,21 @@
         <v>881</v>
       </c>
       <c r="C414" t="s">
-        <v>389</v>
+        <v>882</v>
       </c>
       <c r="D414" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B415" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C415" t="s">
-        <v>885</v>
+        <v>427</v>
       </c>
       <c r="D415" t="s">
         <v>886</v>
@@ -8162,7 +8430,7 @@
         <v>891</v>
       </c>
       <c r="C417" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D417" t="s">
         <v>892</v>
@@ -8176,7 +8444,7 @@
         <v>894</v>
       </c>
       <c r="C418" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D418" t="s">
         <v>895</v>
@@ -8190,24 +8458,24 @@
         <v>897</v>
       </c>
       <c r="C419" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D419" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>898</v>
+      </c>
+      <c r="B420" t="s">
         <v>899</v>
       </c>
-      <c r="B420" t="s">
+      <c r="C420" t="s">
+        <v>393</v>
+      </c>
+      <c r="D420" t="s">
         <v>900</v>
-      </c>
-      <c r="C420" t="s">
-        <v>407</v>
-      </c>
-      <c r="D420" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8218,7 +8486,7 @@
         <v>902</v>
       </c>
       <c r="C421" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="D421" t="s">
         <v>903</v>
@@ -8229,108 +8497,108 @@
         <v>904</v>
       </c>
       <c r="B422" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C422" t="s">
         <v>427</v>
       </c>
       <c r="D422" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B423" t="s">
         <v>907</v>
       </c>
-      <c r="C423" t="s">
-        <v>427</v>
-      </c>
-      <c r="D423" t="s">
-        <v>908</v>
-      </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>908</v>
+      </c>
+      <c r="B424" t="s">
         <v>909</v>
-      </c>
-      <c r="B424" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>910</v>
+      </c>
+      <c r="B425" t="s">
         <v>911</v>
-      </c>
-      <c r="B425" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>912</v>
+      </c>
+      <c r="B426" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A427" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="B426" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>915</v>
-      </c>
-      <c r="B427" t="s">
-        <v>915</v>
+      <c r="B427" s="3" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A428" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A429" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B429" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="B429" s="3" t="s">
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>962</v>
+      </c>
+      <c r="B430" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A430" s="3" t="s">
+      <c r="C430" t="s">
+        <v>882</v>
+      </c>
+      <c r="D430" t="s">
         <v>919</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>965</v>
+        <v>920</v>
       </c>
       <c r="B431" t="s">
         <v>921</v>
       </c>
       <c r="C431" t="s">
-        <v>885</v>
+        <v>427</v>
       </c>
       <c r="D431" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>922</v>
+      </c>
+      <c r="B432" t="s">
         <v>923</v>
       </c>
-      <c r="B432" t="s">
-        <v>924</v>
-      </c>
       <c r="C432" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D432" t="s">
         <v>922</v>
@@ -8338,27 +8606,27 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>924</v>
+      </c>
+      <c r="B433" t="s">
         <v>925</v>
       </c>
-      <c r="B433" t="s">
+      <c r="C433" t="s">
         <v>926</v>
       </c>
-      <c r="C433" t="s">
-        <v>407</v>
-      </c>
       <c r="D433" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B434" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C434" t="s">
-        <v>929</v>
+        <v>407</v>
       </c>
       <c r="D434" t="s">
         <v>930</v>
@@ -8400,24 +8668,24 @@
         <v>938</v>
       </c>
       <c r="C437" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D437" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>939</v>
+      </c>
+      <c r="B438" t="s">
         <v>940</v>
-      </c>
-      <c r="B438" t="s">
-        <v>941</v>
       </c>
       <c r="C438" t="s">
         <v>389</v>
       </c>
       <c r="D438" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8428,24 +8696,24 @@
         <v>943</v>
       </c>
       <c r="C439" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D439" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>944</v>
+      </c>
+      <c r="B440" t="s">
         <v>945</v>
       </c>
-      <c r="B440" t="s">
+      <c r="C440" t="s">
         <v>946</v>
       </c>
-      <c r="C440" t="s">
-        <v>407</v>
-      </c>
       <c r="D440" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8456,7 +8724,7 @@
         <v>948</v>
       </c>
       <c r="C441" t="s">
-        <v>949</v>
+        <v>389</v>
       </c>
       <c r="D441" t="s">
         <v>947</v>
@@ -8464,16 +8732,16 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>949</v>
+      </c>
+      <c r="B442" t="s">
         <v>950</v>
       </c>
-      <c r="B442" t="s">
+      <c r="C442" t="s">
+        <v>427</v>
+      </c>
+      <c r="D442" t="s">
         <v>951</v>
-      </c>
-      <c r="C442" t="s">
-        <v>389</v>
-      </c>
-      <c r="D442" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8484,7 +8752,7 @@
         <v>953</v>
       </c>
       <c r="C443" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="D443" t="s">
         <v>954</v>
@@ -8512,176 +8780,599 @@
         <v>959</v>
       </c>
       <c r="C445" t="s">
-        <v>389</v>
+        <v>960</v>
       </c>
       <c r="D445" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B446" t="s">
-        <v>962</v>
-      </c>
-      <c r="C446" t="s">
-        <v>963</v>
-      </c>
-      <c r="D446" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+    <row r="447" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A447" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="B447" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="B447" t="s">
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A448" s="3" t="s">
+      <c r="B448" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A449" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="B448" s="3" t="s">
+      <c r="B449" s="3" t="s">
         <v>969</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>970</v>
-      </c>
-      <c r="B449" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A450" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B450" s="3" t="s">
         <v>971</v>
-      </c>
-      <c r="B450" s="3" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A451" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A452" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A453" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A454" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A455" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A456" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A457" s="3" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A458" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="B458" s="3" t="s">
         <v>985</v>
-      </c>
-      <c r="B458" s="3" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A459" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B459" s="3" t="s">
         <v>987</v>
-      </c>
-      <c r="B459" s="3" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A460" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B460" s="3" t="s">
         <v>989</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A461" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A462" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A463" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A464" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B464" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="B464" s="3" t="s">
+    </row>
+    <row r="465" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A465" s="3" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A465" s="3" t="s">
+      <c r="B465" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="B465" s="3" t="s">
+    </row>
+    <row r="466" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A466" s="3" t="s">
         <v>998</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A467" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C468" t="s">
+        <v>427</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C469" t="s">
+        <v>389</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C470" t="s">
+        <v>393</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C471" t="s">
+        <v>393</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C472" t="s">
+        <v>393</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C473" t="s">
+        <v>389</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C474" t="s">
+        <v>389</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C475" t="s">
+        <v>389</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C476" t="s">
+        <v>389</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C477" t="s">
+        <v>389</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C478" t="s">
+        <v>393</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C479" t="s">
+        <v>393</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C480" t="s">
+        <v>427</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C481" t="s">
+        <v>389</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C482" t="s">
+        <v>427</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C483" t="s">
+        <v>442</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C484" t="s">
+        <v>442</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C485" t="s">
+        <v>427</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C486" t="s">
+        <v>427</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C487" t="s">
+        <v>442</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C488" t="s">
+        <v>442</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C489" t="s">
+        <v>442</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C490" t="s">
+        <v>393</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C491" t="s">
+        <v>393</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C492" t="s">
+        <v>389</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C493" t="s">
+        <v>427</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A495" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A496" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A497" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A498" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>1083</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4689FFA2-6E04-461E-82E3-B0B3C8D3938A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB8AB34-C466-4616-968C-F63745F25CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -3782,8 +3782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
   <dimension ref="A1:F498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="B498" sqref="B498"/>
+    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="B499" sqref="B499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
